--- a/Copy of Copy_of_Social_Media_Data_Collection_Sheet(JONY).xlsx
+++ b/Copy of Copy_of_Social_Media_Data_Collection_Sheet(JONY).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="59">
   <si>
     <t>GENDER</t>
   </si>
@@ -196,24 +196,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>2:00AM</t>
-  </si>
-  <si>
-    <t>11.00pM</t>
-  </si>
-  <si>
-    <t>11.00PM</t>
-  </si>
-  <si>
-    <t>3.00AM</t>
-  </si>
-  <si>
-    <t>2.30AM</t>
-  </si>
-  <si>
-    <t>12:00AM</t>
   </si>
 </sst>
 </file>
@@ -781,8 +763,8 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1861,8 +1843,8 @@
       <c r="AD11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE11" t="s">
-        <v>59</v>
+      <c r="AE11" s="21">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF11">
         <v>86</v>
@@ -1956,8 +1938,8 @@
       <c r="AD12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AE12" t="s">
-        <v>59</v>
+      <c r="AE12" s="21">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF12">
         <v>55</v>
@@ -2051,8 +2033,8 @@
       <c r="AD13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" t="s">
-        <v>60</v>
+      <c r="AE13" s="21">
+        <v>0.95833333333333337</v>
       </c>
       <c r="AF13">
         <v>50</v>
@@ -2149,8 +2131,8 @@
       <c r="AD14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE14" t="s">
-        <v>61</v>
+      <c r="AE14" s="21">
+        <v>0.95833333333333337</v>
       </c>
       <c r="AF14">
         <v>50</v>
@@ -2247,8 +2229,8 @@
       <c r="AD15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" t="s">
-        <v>62</v>
+      <c r="AE15" s="21">
+        <v>0.125</v>
       </c>
       <c r="AF15">
         <v>69</v>
@@ -2342,8 +2324,8 @@
       <c r="AD16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" t="s">
-        <v>63</v>
+      <c r="AE16" s="21">
+        <v>0.10416666666666667</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -2437,8 +2419,8 @@
       <c r="AD17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE17" t="s">
-        <v>64</v>
+      <c r="AE17" s="21">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>96</v>
@@ -2532,172 +2514,960 @@
       <c r="AD18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE18" t="s">
-        <v>64</v>
+      <c r="AE18" s="21">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="A19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2003</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>167.64</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="G19" s="16">
+        <v>5</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>5.04</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.12</v>
+      </c>
+      <c r="N19">
+        <v>0.1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>0.3</v>
+      </c>
+      <c r="T19">
+        <v>3.4</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
       <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="W19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AF19">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2001</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>180.34</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+      <c r="G20" s="18">
+        <v>8</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>10.18</v>
+      </c>
+      <c r="L20">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M20">
+        <v>1.17</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>6.12</v>
+      </c>
+      <c r="Q20">
+        <v>0.2</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.3</v>
+      </c>
+      <c r="U20">
+        <v>4.75</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF20">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>2003</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>165.1</v>
+      </c>
+      <c r="E21">
+        <v>57</v>
+      </c>
+      <c r="G21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>5.3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0.2</v>
+      </c>
+      <c r="N21">
+        <v>0.45</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>3.36</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF21">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
+      <c r="A22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>2002</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>165.1</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>6.38</v>
+      </c>
+      <c r="L22">
+        <v>1.54</v>
+      </c>
+      <c r="M22">
+        <v>2.06</v>
+      </c>
+      <c r="N22">
+        <v>1.03</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.18</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>3.5</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF22">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>2001</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>165.1</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>9.24</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.03</v>
+      </c>
+      <c r="N23">
+        <v>0.45</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2.09</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>1.3</v>
+      </c>
+      <c r="T23">
+        <v>3.55</v>
+      </c>
+      <c r="U23">
+        <v>4.5</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF23">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2001</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>172.72</v>
+      </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="G24" s="18">
+        <v>5</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>10.52</v>
+      </c>
+      <c r="L24">
+        <v>7.04</v>
+      </c>
+      <c r="M24">
+        <v>0.43</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1.54</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3.54</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF24">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
+      <c r="A25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1999</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>165.1</v>
+      </c>
+      <c r="E25">
+        <v>61</v>
+      </c>
+      <c r="G25" s="16">
+        <v>8</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>3.53</v>
+      </c>
+      <c r="L25">
+        <v>1.05</v>
+      </c>
+      <c r="M25">
+        <v>0.22</v>
+      </c>
+      <c r="N25">
+        <v>0.01</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.46</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>3.66</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AF25">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
+      <c r="A26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>1999</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>167.66</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>5.14</v>
+      </c>
+      <c r="L26">
+        <v>1.36</v>
+      </c>
+      <c r="M26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N26">
+        <v>0.17</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0.11</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>0.3</v>
+      </c>
+      <c r="T26">
+        <v>3.91</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
+      <c r="A27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>2003</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>167.66</v>
+      </c>
+      <c r="E27">
+        <v>78</v>
+      </c>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27">
+        <v>5.41</v>
+      </c>
+      <c r="L27">
+        <v>3.27</v>
+      </c>
+      <c r="M27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N27">
+        <v>0.49</v>
+      </c>
+      <c r="O27">
+        <v>0.08</v>
+      </c>
+      <c r="P27">
+        <v>0.01</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>3.62</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF27">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
+      <c r="A28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>2001</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>167.66</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="G28" s="18">
+        <v>5</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.37</v>
+      </c>
+      <c r="N28">
+        <v>0.06</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+      <c r="T28">
+        <v>3.2</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
